--- a/parsers/file_parsers/data/lots_28-10-2018.xlsx
+++ b/parsers/file_parsers/data/lots_28-10-2018.xlsx
@@ -450,7 +450,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Обычный" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -523,7 +523,7 @@
   <dimension ref="A1:AMJ96"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -540,7 +540,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="28.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="8.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="11.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="11.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="28.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="65.28"/>
@@ -609,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>16</v>
@@ -620,10 +620,12 @@
       <c r="E2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="7" t="b">
+      <c r="F2" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G2" s="7" t="b">
+      <c r="G2" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H2" s="6" t="s">
